--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B680ECDA-469B-467E-93E6-FE99907B64F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9253BA7-06F3-422C-8659-85EE17D79D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="240" windowWidth="20352" windowHeight="13932" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="8016" yWindow="1236" windowWidth="22608" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,14 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC20E133-3FD7-4348-A257-293B4A2A9427}" type="CELLRANGE">
+                    <a:fld id="{4C17D73B-4514-4ED9-8DC0-04D75531850E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -265,7 +264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1781EF59-A896-4A88-A4EB-B9A0F2D3ED13}" type="CELLRANGE">
+                    <a:fld id="{D8C8C948-BF6E-4EDC-A82F-BE66662C54E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -298,7 +297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138E38A6-1C01-4E03-AD7B-CEA03846E513}" type="CELLRANGE">
+                    <a:fld id="{0507F034-7F72-41D3-B0E2-BDDFB3DD11FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -331,7 +330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78BEA876-666E-4EEB-9605-AA9E36F54EEE}" type="CELLRANGE">
+                    <a:fld id="{B33C73FA-BC31-4485-8480-BB5241D60514}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -878,7 +877,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$2:$Q$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
@@ -916,19 +915,19 @@
                 <c:pt idx="11">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>2.0799999999999996</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>1.0399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>3.1199999999999992</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>0.87666666666666659</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>3.2833333333333337</c:v>
                 </c:pt>
               </c:numCache>
@@ -938,7 +937,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$3:$Q$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -976,19 +975,19 @@
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>3.6375000000000006</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>1.8187500000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>5.4562500000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>3.7416666666666667</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>3.5333333333333332</c:v>
                 </c:pt>
               </c:numCache>
@@ -1033,7 +1032,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1095,7 +1094,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2742,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2766,117 +2765,117 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0.6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.36</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>3.3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>3.9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>3.5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <f>AVERAGE(A2:L2)</f>
         <v>2.0799999999999996</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f>$M2-($M2/2)</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <f>$M2+($M2/2)</f>
         <v>3.1199999999999992</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <f>SUM(A2:F2)/COUNT(A2:F2)</f>
         <v>0.87666666666666659</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <f>SUM(G2:L2)/COUNT(G2:L2)</f>
         <v>3.2833333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.75</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4.2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>3.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <f>AVERAGE(A3:L3)</f>
         <v>3.6375000000000006</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <f>$M3-($M3/2)</f>
         <v>1.8187500000000003</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <f>$M3+($M3/2)</f>
         <v>5.4562500000000007</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <f>SUM(A3:F3)/COUNT(A3:F3)</f>
         <v>3.7416666666666667</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <f>SUM(G3:L3)/COUNT(G3:L3)</f>
         <v>3.5333333333333332</v>
       </c>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9253BA7-06F3-422C-8659-85EE17D79D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CD300-0861-47E8-A3E5-186C2CA1A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8016" yWindow="1236" windowWidth="22608" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="10980" yWindow="2520" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,13 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C17D73B-4514-4ED9-8DC0-04D75531850E}" type="CELLRANGE">
+                    <a:fld id="{16117793-E988-40CC-AC7A-D3E084E6C228}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -264,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8C8C948-BF6E-4EDC-A82F-BE66662C54E7}" type="CELLRANGE">
+                    <a:fld id="{F55704AA-CEED-4D80-BB2A-791260ACE2D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -297,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0507F034-7F72-41D3-B0E2-BDDFB3DD11FB}" type="CELLRANGE">
+                    <a:fld id="{74B3AC01-21BB-4FEA-A963-7A780C4125A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -330,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B33C73FA-BC31-4485-8480-BB5241D60514}" type="CELLRANGE">
+                    <a:fld id="{5C7CC5DF-A96A-4FF9-95AB-1C17ED574907}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -875,10 +876,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$Q$2</c:f>
+              <c:f>Sheet2!$A$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -923,22 +924,16 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
                   <c:v>3.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>0.87666666666666659</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>3.2833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$Q$3</c:f>
+              <c:f>Sheet2!$A$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -983,12 +978,6 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
                   <c:v>5.4562500000000007</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>3.7416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>3.5333333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,23 +1004,10 @@
         <c:axId val="1942221552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1080,20 +1056,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2345,14 +2307,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2739,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,6 +2840,18 @@
       <c r="Q3" s="4">
         <f>SUM(G3:L3)/COUNT(G3:L3)</f>
         <v>3.5333333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="6">
+        <f>SUM(A2:L2)</f>
+        <v>24.959999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M6" s="6">
+        <f>SUM(A3:L3)</f>
+        <v>43.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CD300-0861-47E8-A3E5-186C2CA1A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F2003-C9C0-494D-BDAF-9D4B3447D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2520" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="9816" yWindow="2424" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16117793-E988-40CC-AC7A-D3E084E6C228}" type="CELLRANGE">
+                    <a:fld id="{E25D2456-ED42-487D-8E59-DFA2D95BB274}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -265,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F55704AA-CEED-4D80-BB2A-791260ACE2D2}" type="CELLRANGE">
+                    <a:fld id="{A6895D31-D084-4814-BDFD-25A5B35EE4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74B3AC01-21BB-4FEA-A963-7A780C4125A6}" type="CELLRANGE">
+                    <a:fld id="{1E4B7B43-D56F-4532-966E-4500575FC6B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -331,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C7CC5DF-A96A-4FF9-95AB-1C17ED574907}" type="CELLRANGE">
+                    <a:fld id="{9161DB58-BFBC-417C-BB88-B58A709A5EA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2307,15 +2307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F2003-C9C0-494D-BDAF-9D4B3447D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DDD56-1580-4D3A-8519-FCE0D57C4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9816" yWindow="2424" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
@@ -232,7 +232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E25D2456-ED42-487D-8E59-DFA2D95BB274}" type="CELLRANGE">
+                    <a:fld id="{CEB96D0F-13AA-4EC3-8875-4BD1B687F6F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -265,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6895D31-D084-4814-BDFD-25A5B35EE4D9}" type="CELLRANGE">
+                    <a:fld id="{21747BB6-339B-4343-897F-C13FC7F62ADB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E4B7B43-D56F-4532-966E-4500575FC6B3}" type="CELLRANGE">
+                    <a:fld id="{7B795E69-0118-4B17-B6E3-E805878E0054}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -331,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9161DB58-BFBC-417C-BB88-B58A709A5EA2}" type="CELLRANGE">
+                    <a:fld id="{7D383B0F-654D-4098-BA0A-9A50177A87E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2638,6 +2638,49 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6691A552-DBF7-40A7-86BE-786AFD756A19}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;gTtFvlp2PMIcComGn2rzL&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD311D6-070A-4822-B8CB-4430C8E297A6}">
   <dimension ref="A1:D3"/>
@@ -2704,7 +2747,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DDD56-1580-4D3A-8519-FCE0D57C4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA65164-094C-4FF9-BEC5-2C95C63ED716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9816" yWindow="2424" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="16020" yWindow="3384" windowWidth="21396" windowHeight="12816" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEB96D0F-13AA-4EC3-8875-4BD1B687F6F9}" type="CELLRANGE">
+                    <a:fld id="{ECCD35EC-DCDF-40A5-B640-715ECD5F00D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -265,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21747BB6-339B-4343-897F-C13FC7F62ADB}" type="CELLRANGE">
+                    <a:fld id="{051DFEAA-A29F-4E6C-ACDA-A2462B715CD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B795E69-0118-4B17-B6E3-E805878E0054}" type="CELLRANGE">
+                    <a:fld id="{25400710-9A0E-472E-80F0-59DB2C0B4887}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -331,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D383B0F-654D-4098-BA0A-9A50177A87E5}" type="CELLRANGE">
+                    <a:fld id="{DBA5F69F-0E14-4D32-9ABF-C1310C205158}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2658,6 +2658,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -2747,7 +2750,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2819,11 +2822,11 @@
         <v>3.1199999999999992</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM(A2:F2)/COUNT(A2:F2)</f>
+        <f>AVERAGE(A2:F2)</f>
         <v>0.87666666666666659</v>
       </c>
       <c r="Q2" s="4">
-        <f>SUM(G2:L2)/COUNT(G2:L2)</f>
+        <f>AVERAGE(G2:L2)</f>
         <v>3.2833333333333337</v>
       </c>
     </row>
@@ -2877,11 +2880,11 @@
         <v>5.4562500000000007</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM(A3:F3)/COUNT(A3:F3)</f>
+        <f>AVERAGE(A3:F3)</f>
         <v>3.7416666666666667</v>
       </c>
       <c r="Q3" s="4">
-        <f>SUM(G3:L3)/COUNT(G3:L3)</f>
+        <f>AVERAGE(G3:L3)</f>
         <v>3.5333333333333332</v>
       </c>
     </row>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74598B1B-AD0D-44D3-8307-856A7A29E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018B142-8EC5-445F-9127-80C9118A48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1480" windowWidth="19510" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="1270" yWindow="1100" windowWidth="22510" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>K1-Distance</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Y-Value</t>
-  </si>
-  <si>
-    <t>K3-Distance</t>
   </si>
   <si>
     <t>Min-Distance</t>
@@ -78,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,7 +96,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -134,6 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +255,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
@@ -265,6 +269,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-03FA-463C-84F5-2E1B70B840FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-03FA-463C-84F5-2E1B70B840FA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -314,10 +342,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$1:$P$1</c:f>
+              <c:f>Model!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>9.7840100000000003</c:v>
                 </c:pt>
@@ -360,18 +388,21 @@
                 <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>7.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$2:$P$2</c:f>
+              <c:f>Model!$B$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>7.8598999999999997</c:v>
                 </c:pt>
@@ -414,8 +445,11 @@
                 <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.6585709999999998</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>6.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,14 +1215,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1559,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,7 +1604,7 @@
     <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1616,11 +1650,14 @@
       <c r="O1" s="7">
         <v>7</v>
       </c>
-      <c r="P1" s="7">
-        <v>5</v>
+      <c r="P1" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>7.8319999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1666,11 +1703,14 @@
       <c r="O2" s="7">
         <v>8</v>
       </c>
-      <c r="P2" s="7">
-        <v>5</v>
+      <c r="P2" s="8">
+        <v>2.6585709999999998</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>6.63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1765,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1780,110 +1820,55 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <f>SQRT(POWER(B1-$P$1, 2)+POWER(B2-$P$2, 2))</f>
-        <v>5.5736684230495808</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:M5" si="1">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
-        <v>5.95208099214552</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>3.8550559485952998</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5804167505620939</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.975182670691499</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0158355602581643</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.5995493727646846</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>2.935495383730828</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6888570839856847</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.3749546084896691</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>3.7821267638195315</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.6287905456544483</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B5" s="6">
         <f>MIN(B3:B4)</f>
         <v>2.7875329038596122</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C5" s="6">
         <f>MIN(C3:C4)</f>
         <v>3.8999584788892303</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D5" s="6">
         <f>MIN(D3:D4)</f>
         <v>3.1098064838185673</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E5" s="6">
         <f>MIN(E3:E4)</f>
         <v>3.7685898038860635</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F5" s="6">
         <f>MIN(F3:F4)</f>
         <v>1.6334890824857076</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G5" s="6">
         <f>MIN(G3:G4)</f>
         <v>0.87444682344554292</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H5" s="6">
         <f>MIN(H3:H4)</f>
         <v>2.3831270281921606</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I5" s="6">
         <f>MIN(I3:I4)</f>
         <v>3.6185990587387549</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J5" s="6">
         <f>MIN(J3:J4)</f>
         <v>1.1568631803718192</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K5" s="6">
         <f>MIN(K3:K4)</f>
         <v>2.2565442221115455</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L5" s="6">
         <f>MIN(L3:L4)</f>
         <v>2.3056979111757032</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M5" s="6">
         <f>MIN(M3:M4)</f>
         <v>3.3422731659067004</v>
       </c>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018B142-8EC5-445F-9127-80C9118A48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F544EA-DC06-42F7-A0CE-D392A4098060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1270" yWindow="1100" windowWidth="22510" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="20" yWindow="660" windowWidth="22510" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>K1-Distance</t>
   </si>
@@ -75,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +96,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,16 +134,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,30 +280,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-03FA-463C-84F5-2E1B70B840FA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -388,10 +372,10 @@
                 <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>1.64</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>7.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -445,10 +429,10 @@
                 <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>2.6585709999999998</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>6.63</c:v>
                 </c:pt>
               </c:numCache>
@@ -1214,15 +1198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1593,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1605,272 +1589,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="8">
         <v>9.7840100000000003</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="8">
         <v>0.80864599999999998</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="8">
         <v>8.8248200000000008</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="8">
         <v>1.8018270000000001</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="8">
         <v>6.1569900000000004</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="8">
         <v>6.5071149999999998</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="8">
         <v>1.10033</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="8">
         <v>7.8913640000000003</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="8">
         <v>3.3313000000000001</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="8">
         <v>0.743483</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="8">
         <v>3.1532399999999998</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="8">
         <v>0.54972600000000005</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="9">
         <v>3</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="9">
         <v>7</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="10">
         <v>1.64</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="10">
         <v>7.8319999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>7.8598999999999997</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.77391200000000004</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>5.4818800000000003</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>0.42695499999999997</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>6.6008500000000003</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>8.7223030000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="8">
         <v>2.5610599999999999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="8">
         <v>4.4929030000000001</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="8">
         <v>2.8915899999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>3.9889160000000001</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="8">
         <v>1.6994</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
         <v>6.2730920000000001</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="9">
         <v>4</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <v>8</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="10">
         <v>2.6585709999999998</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="10">
         <v>6.63</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="3">
         <f>SQRT(POWER(B1-$N$1, 2)+POWER(B2-$N$2, 2))</f>
         <v>7.8052302778393416</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:M3" si="0">SQRT(POWER(C1-$N$1, 2)+POWER(C2-$N$2, 2))</f>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:M4" si="0">SQRT(POWER(C1-$N$1, 2)+POWER(C2-$N$2, 2))</f>
         <v>3.8999584788892303</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>6.0103657431806932</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>3.7685898038860635</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>4.0903553125125942</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>5.8821765739421661</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>2.3831270281921606</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>4.9161362011141438</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>1.1568631803718192</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>2.2565442221115455</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>2.3056979111757032</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>3.3422731659067004</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="3">
         <f>SQRT(POWER(B1-$O$1, 2)+POWER(B2-$O$2, 2))</f>
         <v>2.7875329038596122</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="3">
         <f>SQRT(POWER(C1-$O$1, 2)+POWER(C2-$O$2, 2))</f>
         <v>9.5157349761886501</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="3">
         <f>SQRT(POWER(D1-$O$1, 2)+POWER(D2-$O$2, 2))</f>
         <v>3.1098064838185673</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
         <f>SQRT(POWER(E1-$O$1, 2)+POWER(E2-$O$2, 2))</f>
         <v>9.1854239482973234</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="3">
         <f>SQRT(POWER(F1-$O$1, 2)+POWER(F2-$O$2, 2))</f>
         <v>1.6334890824857076</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="3">
         <f>SQRT(POWER(G1-$O$1, 2)+POWER(G2-$O$2, 2))</f>
         <v>0.87444682344554292</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="3">
         <f>SQRT(POWER(H1-$O$1, 2)+POWER(H2-$O$2, 2))</f>
         <v>8.0242242262102828</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="3">
         <f>SQRT(POWER(I1-$O$1, 2)+POWER(I2-$O$2, 2))</f>
         <v>3.6185990587387549</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="3">
         <f>SQRT(POWER(J1-$O$1, 2)+POWER(J2-$O$2, 2))</f>
         <v>6.2892934752720828</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K5" s="3">
         <f>SQRT(POWER(K1-$O$1, 2)+POWER(K2-$O$2, 2))</f>
         <v>7.4318772747096</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L5" s="3">
         <f>SQRT(POWER(L1-$O$1, 2)+POWER(L2-$O$2, 2))</f>
         <v>7.382081200962233</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="3">
         <f>SQRT(POWER(M1-$O$1, 2)+POWER(M2-$O$2, 2))</f>
         <v>6.6774430671882179</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <f>MIN(B3:B4)</f>
+      <c r="B6" s="4">
+        <f>MIN(B4:B5)</f>
         <v>2.7875329038596122</v>
       </c>
-      <c r="C5" s="6">
-        <f>MIN(C3:C4)</f>
+      <c r="C6" s="4">
+        <f>MIN(C4:C5)</f>
         <v>3.8999584788892303</v>
       </c>
-      <c r="D5" s="6">
-        <f>MIN(D3:D4)</f>
+      <c r="D6" s="4">
+        <f>MIN(D4:D5)</f>
         <v>3.1098064838185673</v>
       </c>
-      <c r="E5" s="6">
-        <f>MIN(E3:E4)</f>
+      <c r="E6" s="4">
+        <f>MIN(E4:E5)</f>
         <v>3.7685898038860635</v>
       </c>
-      <c r="F5" s="6">
-        <f>MIN(F3:F4)</f>
+      <c r="F6" s="4">
+        <f>MIN(F4:F5)</f>
         <v>1.6334890824857076</v>
       </c>
-      <c r="G5" s="6">
-        <f>MIN(G3:G4)</f>
+      <c r="G6" s="4">
+        <f>MIN(G4:G5)</f>
         <v>0.87444682344554292</v>
       </c>
-      <c r="H5" s="6">
-        <f>MIN(H3:H4)</f>
+      <c r="H6" s="4">
+        <f>MIN(H4:H5)</f>
         <v>2.3831270281921606</v>
       </c>
-      <c r="I5" s="6">
-        <f>MIN(I3:I4)</f>
+      <c r="I6" s="4">
+        <f>MIN(I4:I5)</f>
         <v>3.6185990587387549</v>
       </c>
-      <c r="J5" s="6">
-        <f>MIN(J3:J4)</f>
+      <c r="J6" s="4">
+        <f>MIN(J4:J5)</f>
         <v>1.1568631803718192</v>
       </c>
-      <c r="K5" s="6">
-        <f>MIN(K3:K4)</f>
+      <c r="K6" s="4">
+        <f>MIN(K4:K5)</f>
         <v>2.2565442221115455</v>
       </c>
-      <c r="L5" s="6">
-        <f>MIN(L3:L4)</f>
+      <c r="L6" s="4">
+        <f>MIN(L4:L5)</f>
         <v>2.3056979111757032</v>
       </c>
-      <c r="M5" s="6">
-        <f>MIN(M3:M4)</f>
+      <c r="M6" s="4">
+        <f>MIN(M4:M5)</f>
         <v>3.3422731659067004</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SQRT(POWER(B1-$P$1, 2)+POWER(B2-$P$2, 2))</f>
+        <v>9.6632666446880684</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:M8" si="1">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
+        <v>2.0598759718966089</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7196316066170558</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.237475798614367</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9953950974010883</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7754520248696153</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54840870162771838</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5149309855684585</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7072766455267292</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6042320749548677</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7916205806032146</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7753754057731799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SQRT(POWER(B1-$Q$1, 2)+POWER(B2-$Q$2, 2))</f>
+        <v>2.3071621204631461</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:M9" si="2">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
+        <v>9.1444665275269053</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5178508117730152</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
+        <v>8.6510550617802675</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6752636277911599</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4764999711354734</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>7.865853654403951</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1379213437133271</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8508127485076811</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5645487607883792</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
+        <v>6.7971767299077932</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2910148766505749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <f>MIN(B8:B9)</f>
+        <v>2.3071621204631461</v>
+      </c>
+      <c r="C10" s="4">
+        <f>MIN(C8:C9)</f>
+        <v>2.0598759718966089</v>
+      </c>
+      <c r="D10" s="4">
+        <f>MIN(D8:D9)</f>
+        <v>1.5178508117730152</v>
+      </c>
+      <c r="E10" s="4">
+        <f>MIN(E8:E9)</f>
+        <v>2.237475798614367</v>
+      </c>
+      <c r="F10" s="4">
+        <f>MIN(F8:F9)</f>
+        <v>1.6752636277911599</v>
+      </c>
+      <c r="G10" s="4">
+        <f>MIN(G8:G9)</f>
+        <v>2.4764999711354734</v>
+      </c>
+      <c r="H10" s="4">
+        <f>MIN(H8:H9)</f>
+        <v>0.54840870162771838</v>
+      </c>
+      <c r="I10" s="4">
+        <f>MIN(I8:I9)</f>
+        <v>2.1379213437133271</v>
+      </c>
+      <c r="J10" s="4">
+        <f>MIN(J8:J9)</f>
+        <v>1.7072766455267292</v>
+      </c>
+      <c r="K10" s="4">
+        <f>MIN(K8:K9)</f>
+        <v>1.6042320749548677</v>
+      </c>
+      <c r="L10" s="4">
+        <f>MIN(L8:L9)</f>
+        <v>1.7916205806032146</v>
+      </c>
+      <c r="M10" s="4">
+        <f>MIN(M8:M9)</f>
+        <v>3.7753754057731799</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F544EA-DC06-42F7-A0CE-D392A4098060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4A43-C67B-46E1-B1AA-EB8146DF03C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="660" windowWidth="22510" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="1640" yWindow="1770" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -277,6 +277,30 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-03FA-463C-84F5-2E1B70B840FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-03FA-463C-84F5-2E1B70B840FA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1579,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4A43-C67B-46E1-B1AA-EB8146DF03C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C77733B-7230-4F23-AB61-373989A5ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1770" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="1780" yWindow="2220" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -391,10 +391,10 @@
                   <c:v>0.54972600000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.64</c:v>
@@ -448,10 +448,10 @@
                   <c:v>6.2730920000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.6585709999999998</c:v>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1653,10 +1653,10 @@
         <v>0.54972600000000005</v>
       </c>
       <c r="N1" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O1" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="10">
         <v>1.64</v>
@@ -1706,10 +1706,10 @@
         <v>6.2730920000000001</v>
       </c>
       <c r="N2" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="10">
         <v>2.6585709999999998</v>
@@ -1728,51 +1728,51 @@
       </c>
       <c r="B4" s="3">
         <f>SQRT(POWER(B1-$N$1, 2)+POWER(B2-$N$2, 2))</f>
-        <v>7.8052302778393416</v>
+        <v>10.375405519308631</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:M4" si="0">SQRT(POWER(C1-$N$1, 2)+POWER(C2-$N$2, 2))</f>
-        <v>3.8999584788892303</v>
+        <v>1.2126170611780127</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>6.0103657431806932</v>
+        <v>8.1648892440008023</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>3.7685898038860635</v>
+        <v>0.60634405246031731</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>4.0903553125125942</v>
+        <v>6.9749614036638228</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>5.8821765739421661</v>
+        <v>8.9413673029930933</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>2.3831270281921606</v>
+        <v>1.8017531552629509</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>4.9161362011141438</v>
+        <v>6.8489810298981704</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>1.1568631803718192</v>
+        <v>2.3131088210674395</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>2.2565442221115455</v>
+        <v>3.2422914468543693</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>2.3056979111757032</v>
+        <v>1.348748626542396</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>3.3422731659067004</v>
+        <v>5.4688932989719232</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1785,51 +1785,51 @@
       </c>
       <c r="B5" s="3">
         <f>SQRT(POWER(B1-$O$1, 2)+POWER(B2-$O$2, 2))</f>
-        <v>2.7875329038596122</v>
+        <v>2.1171961860205593</v>
       </c>
       <c r="C5" s="3">
         <f>SQRT(POWER(C1-$O$1, 2)+POWER(C2-$O$2, 2))</f>
-        <v>9.5157349761886501</v>
+        <v>10.926302949170868</v>
       </c>
       <c r="D5" s="3">
         <f>SQRT(POWER(D1-$O$1, 2)+POWER(D2-$O$2, 2))</f>
-        <v>3.1098064838185673</v>
+        <v>3.6135157903072739</v>
       </c>
       <c r="E5" s="3">
         <f>SQRT(POWER(E1-$O$1, 2)+POWER(E2-$O$2, 2))</f>
-        <v>9.1854239482973234</v>
+        <v>10.578962572481009</v>
       </c>
       <c r="F5" s="3">
         <f>SQRT(POWER(F1-$O$1, 2)+POWER(F2-$O$2, 2))</f>
-        <v>1.6334890824857076</v>
+        <v>3.0253275165839479</v>
       </c>
       <c r="G5" s="3">
         <f>SQRT(POWER(G1-$O$1, 2)+POWER(G2-$O$2, 2))</f>
-        <v>0.87444682344554292</v>
+        <v>1.5184930842891582</v>
       </c>
       <c r="H5" s="3">
         <f>SQRT(POWER(H1-$O$1, 2)+POWER(H2-$O$2, 2))</f>
-        <v>8.0242242262102828</v>
+        <v>9.4374463936225883</v>
       </c>
       <c r="I5" s="3">
         <f>SQRT(POWER(I1-$O$1, 2)+POWER(I2-$O$2, 2))</f>
-        <v>3.6185990587387549</v>
+        <v>4.5084060540178719</v>
       </c>
       <c r="J5" s="3">
         <f>SQRT(POWER(J1-$O$1, 2)+POWER(J2-$O$2, 2))</f>
-        <v>6.2892934752720828</v>
+        <v>7.6882658914803406</v>
       </c>
       <c r="K5" s="3">
         <f>SQRT(POWER(K1-$O$1, 2)+POWER(K2-$O$2, 2))</f>
-        <v>7.4318772747096</v>
+        <v>8.8186167751153022</v>
       </c>
       <c r="L5" s="3">
         <f>SQRT(POWER(L1-$O$1, 2)+POWER(L2-$O$2, 2))</f>
-        <v>7.382081200962233</v>
+        <v>8.7629813909194176</v>
       </c>
       <c r="M5" s="3">
         <f>SQRT(POWER(M1-$O$1, 2)+POWER(M2-$O$2, 2))</f>
-        <v>6.6774430671882179</v>
+        <v>7.9336378739856785</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1842,51 +1842,51 @@
       </c>
       <c r="B6" s="4">
         <f>MIN(B4:B5)</f>
-        <v>2.7875329038596122</v>
+        <v>2.1171961860205593</v>
       </c>
       <c r="C6" s="4">
         <f>MIN(C4:C5)</f>
-        <v>3.8999584788892303</v>
+        <v>1.2126170611780127</v>
       </c>
       <c r="D6" s="4">
         <f>MIN(D4:D5)</f>
-        <v>3.1098064838185673</v>
+        <v>3.6135157903072739</v>
       </c>
       <c r="E6" s="4">
         <f>MIN(E4:E5)</f>
-        <v>3.7685898038860635</v>
+        <v>0.60634405246031731</v>
       </c>
       <c r="F6" s="4">
         <f>MIN(F4:F5)</f>
-        <v>1.6334890824857076</v>
+        <v>3.0253275165839479</v>
       </c>
       <c r="G6" s="4">
         <f>MIN(G4:G5)</f>
-        <v>0.87444682344554292</v>
+        <v>1.5184930842891582</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(H4:H5)</f>
-        <v>2.3831270281921606</v>
+        <v>1.8017531552629509</v>
       </c>
       <c r="I6" s="4">
         <f>MIN(I4:I5)</f>
-        <v>3.6185990587387549</v>
+        <v>4.5084060540178719</v>
       </c>
       <c r="J6" s="4">
         <f>MIN(J4:J5)</f>
-        <v>1.1568631803718192</v>
+        <v>2.3131088210674395</v>
       </c>
       <c r="K6" s="4">
         <f>MIN(K4:K5)</f>
-        <v>2.2565442221115455</v>
+        <v>3.2422914468543693</v>
       </c>
       <c r="L6" s="4">
         <f>MIN(L4:L5)</f>
-        <v>2.3056979111757032</v>
+        <v>1.348748626542396</v>
       </c>
       <c r="M6" s="4">
         <f>MIN(M4:M5)</f>
-        <v>3.3422731659067004</v>
+        <v>5.4688932989719232</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C77733B-7230-4F23-AB61-373989A5ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF279305-070E-4429-8C1D-187E6F30C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2220" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="970" yWindow="860" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -397,10 +397,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.64</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8319999999999999</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,10 +454,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6585709999999998</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.63</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,10 +1659,10 @@
         <v>8</v>
       </c>
       <c r="P1" s="10">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="Q1" s="10">
-        <v>7.8319999999999999</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1712,14 +1712,14 @@
         <v>9</v>
       </c>
       <c r="P2" s="10">
-        <v>2.6585709999999998</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="10">
-        <v>6.63</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P3" s="1"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1899,51 +1899,51 @@
       </c>
       <c r="B8" s="3">
         <f>SQRT(POWER(B1-$P$1, 2)+POWER(B2-$P$2, 2))</f>
-        <v>9.6632666446880684</v>
+        <v>7.5177143926927679</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:M8" si="1">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
-        <v>2.0598759718966089</v>
+        <v>5.4929658780170847</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>7.7196316066170558</v>
+        <v>6.3460063320800435</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>2.237475798614367</v>
+        <v>5.6166071706995853</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>5.9953950974010883</v>
+        <v>3.7060216651552382</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>7.7754520248696153</v>
+        <v>4.8443683021663411</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.54840870162771838</v>
+        <v>3.7128674138056694</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>6.5149309855684585</v>
+        <v>5.5980485124644108</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>1.7072766455267292</v>
+        <v>3.217650139169888</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>1.6042320749548677</v>
+        <v>2.6701705612834923</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>1.7916205806032146</v>
+        <v>4.3499290635135655</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>3.7753754057731799</v>
+        <v>1.9693013775296049</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1952,51 +1952,51 @@
       </c>
       <c r="B9" s="3">
         <f>SQRT(POWER(B1-$Q$1, 2)+POWER(B2-$Q$2, 2))</f>
-        <v>2.3071621204631461</v>
+        <v>2.7664209170153411</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:M9" si="2">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
-        <v>9.1444665275269053</v>
+        <v>8.7866187545073338</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>1.5178508117730152</v>
+        <v>2.0219263999463486</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>8.6510550617802675</v>
+        <v>8.3464655459633939</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1.6752636277911599</v>
+        <v>1.1031394211975198</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="2"/>
-        <v>2.4764999711354734</v>
+        <v>2.1075714097116616</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>7.865853654403951</v>
+        <v>7.4408104015960523</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>2.1379213437133271</v>
+        <v>2.3464515012897667</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="2"/>
-        <v>5.8508127485076811</v>
+        <v>5.4994124611725566</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>7.5645487607883792</v>
+        <v>7.0681219801546291</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>6.7971767299077932</v>
+        <v>6.5032301864227442</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>7.2910148766505749</v>
+        <v>6.7172250904328052</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2005,51 +2005,51 @@
       </c>
       <c r="B10" s="4">
         <f>MIN(B8:B9)</f>
-        <v>2.3071621204631461</v>
+        <v>2.7664209170153411</v>
       </c>
       <c r="C10" s="4">
         <f>MIN(C8:C9)</f>
-        <v>2.0598759718966089</v>
+        <v>5.4929658780170847</v>
       </c>
       <c r="D10" s="4">
         <f>MIN(D8:D9)</f>
-        <v>1.5178508117730152</v>
+        <v>2.0219263999463486</v>
       </c>
       <c r="E10" s="4">
         <f>MIN(E8:E9)</f>
-        <v>2.237475798614367</v>
+        <v>5.6166071706995853</v>
       </c>
       <c r="F10" s="4">
         <f>MIN(F8:F9)</f>
-        <v>1.6752636277911599</v>
+        <v>1.1031394211975198</v>
       </c>
       <c r="G10" s="4">
         <f>MIN(G8:G9)</f>
-        <v>2.4764999711354734</v>
+        <v>2.1075714097116616</v>
       </c>
       <c r="H10" s="4">
         <f>MIN(H8:H9)</f>
-        <v>0.54840870162771838</v>
+        <v>3.7128674138056694</v>
       </c>
       <c r="I10" s="4">
         <f>MIN(I8:I9)</f>
-        <v>2.1379213437133271</v>
+        <v>2.3464515012897667</v>
       </c>
       <c r="J10" s="4">
         <f>MIN(J8:J9)</f>
-        <v>1.7072766455267292</v>
+        <v>3.217650139169888</v>
       </c>
       <c r="K10" s="4">
         <f>MIN(K8:K9)</f>
-        <v>1.6042320749548677</v>
+        <v>2.6701705612834923</v>
       </c>
       <c r="L10" s="4">
         <f>MIN(L8:L9)</f>
-        <v>1.7916205806032146</v>
+        <v>4.3499290635135655</v>
       </c>
       <c r="M10" s="4">
         <f>MIN(M8:M9)</f>
-        <v>3.7753754057731799</v>
+        <v>1.9693013775296049</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF279305-070E-4429-8C1D-187E6F30C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D844F2-8A2F-4656-A990-5CB79AA89D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="860" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="1570" yWindow="1020" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -96,12 +96,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -109,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,9 +142,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -391,16 +391,16 @@
                   <c:v>0.54972600000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.25</c:v>
+                  <c:v>7.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,16 +448,16 @@
                   <c:v>6.2730920000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>2.6585709999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.75</c:v>
+                  <c:v>6.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1613,109 +1613,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>9.7840100000000003</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>0.80864599999999998</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>8.8248200000000008</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="7">
         <v>1.8018270000000001</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>6.1569900000000004</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <v>6.5071149999999998</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>1.10033</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>7.8913640000000003</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="7">
         <v>3.3313000000000001</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="7">
         <v>0.743483</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <v>3.1532399999999998</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="7">
         <v>0.54972600000000005</v>
       </c>
-      <c r="N1" s="9">
-        <v>2</v>
-      </c>
-      <c r="O1" s="9">
-        <v>8</v>
-      </c>
-      <c r="P1" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="Q1" s="10">
+      <c r="N1" s="10">
+        <v>4</v>
+      </c>
+      <c r="O1" s="10">
         <v>7.25</v>
+      </c>
+      <c r="P1" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>7.8319999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>7.8598999999999997</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.77391200000000004</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>5.4818800000000003</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.42695499999999997</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>6.6008500000000003</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>8.7223030000000001</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2.5610599999999999</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4.4929030000000001</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>2.8915899999999999</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>3.9889160000000001</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>1.6994</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>6.2730920000000001</v>
       </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>9</v>
-      </c>
-      <c r="P2" s="10">
+      <c r="N2" s="10">
         <v>6</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="O2" s="10">
         <v>6.75</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2.6585709999999998</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>6.63</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1728,51 +1728,51 @@
       </c>
       <c r="B4" s="3">
         <f>SQRT(POWER(B1-$N$1, 2)+POWER(B2-$N$2, 2))</f>
-        <v>10.375405519308631</v>
+        <v>6.0756892358069141</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:M4" si="0">SQRT(POWER(C1-$N$1, 2)+POWER(C2-$N$2, 2))</f>
-        <v>1.2126170611780127</v>
+        <v>6.1234578578659296</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>8.1648892440008023</v>
+        <v>4.8525597746756306</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>0.60634405246031731</v>
+        <v>5.9908926805572147</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>6.9749614036638228</v>
+        <v>2.239112900815857</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>8.9413673029930933</v>
+        <v>3.7008862785870629</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>1.8017531552629509</v>
+        <v>4.4982657138612874</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>6.8489810298981704</v>
+        <v>4.1730151147467707</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>2.3131088210674395</v>
+        <v>3.1795239294743483</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>3.2422914468543693</v>
+        <v>3.8274484746819257</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>1.348748626542396</v>
+        <v>4.3831681301998904</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>5.4688932989719232</v>
+        <v>3.4610648528364791</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1785,51 +1785,51 @@
       </c>
       <c r="B5" s="3">
         <f>SQRT(POWER(B1-$O$1, 2)+POWER(B2-$O$2, 2))</f>
-        <v>2.1171961860205593</v>
+        <v>2.7664209170153411</v>
       </c>
       <c r="C5" s="3">
         <f>SQRT(POWER(C1-$O$1, 2)+POWER(C2-$O$2, 2))</f>
-        <v>10.926302949170868</v>
+        <v>8.7866187545073338</v>
       </c>
       <c r="D5" s="3">
         <f>SQRT(POWER(D1-$O$1, 2)+POWER(D2-$O$2, 2))</f>
-        <v>3.6135157903072739</v>
+        <v>2.0219263999463486</v>
       </c>
       <c r="E5" s="3">
         <f>SQRT(POWER(E1-$O$1, 2)+POWER(E2-$O$2, 2))</f>
-        <v>10.578962572481009</v>
+        <v>8.3464655459633939</v>
       </c>
       <c r="F5" s="3">
         <f>SQRT(POWER(F1-$O$1, 2)+POWER(F2-$O$2, 2))</f>
-        <v>3.0253275165839479</v>
+        <v>1.1031394211975198</v>
       </c>
       <c r="G5" s="3">
         <f>SQRT(POWER(G1-$O$1, 2)+POWER(G2-$O$2, 2))</f>
-        <v>1.5184930842891582</v>
+        <v>2.1075714097116616</v>
       </c>
       <c r="H5" s="3">
         <f>SQRT(POWER(H1-$O$1, 2)+POWER(H2-$O$2, 2))</f>
-        <v>9.4374463936225883</v>
+        <v>7.4408104015960523</v>
       </c>
       <c r="I5" s="3">
         <f>SQRT(POWER(I1-$O$1, 2)+POWER(I2-$O$2, 2))</f>
-        <v>4.5084060540178719</v>
+        <v>2.3464515012897667</v>
       </c>
       <c r="J5" s="3">
         <f>SQRT(POWER(J1-$O$1, 2)+POWER(J2-$O$2, 2))</f>
-        <v>7.6882658914803406</v>
+        <v>5.4994124611725566</v>
       </c>
       <c r="K5" s="3">
         <f>SQRT(POWER(K1-$O$1, 2)+POWER(K2-$O$2, 2))</f>
-        <v>8.8186167751153022</v>
+        <v>7.0681219801546291</v>
       </c>
       <c r="L5" s="3">
         <f>SQRT(POWER(L1-$O$1, 2)+POWER(L2-$O$2, 2))</f>
-        <v>8.7629813909194176</v>
+        <v>6.5032301864227442</v>
       </c>
       <c r="M5" s="3">
         <f>SQRT(POWER(M1-$O$1, 2)+POWER(M2-$O$2, 2))</f>
-        <v>7.9336378739856785</v>
+        <v>6.7172250904328052</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1840,53 +1840,53 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <f>MIN(B4:B5)</f>
-        <v>2.1171961860205593</v>
-      </c>
-      <c r="C6" s="4">
-        <f>MIN(C4:C5)</f>
-        <v>1.2126170611780127</v>
-      </c>
-      <c r="D6" s="4">
-        <f>MIN(D4:D5)</f>
-        <v>3.6135157903072739</v>
-      </c>
-      <c r="E6" s="4">
-        <f>MIN(E4:E5)</f>
-        <v>0.60634405246031731</v>
-      </c>
-      <c r="F6" s="4">
-        <f>MIN(F4:F5)</f>
-        <v>3.0253275165839479</v>
-      </c>
-      <c r="G6" s="4">
-        <f>MIN(G4:G5)</f>
-        <v>1.5184930842891582</v>
-      </c>
-      <c r="H6" s="4">
-        <f>MIN(H4:H5)</f>
-        <v>1.8017531552629509</v>
-      </c>
-      <c r="I6" s="4">
-        <f>MIN(I4:I5)</f>
-        <v>4.5084060540178719</v>
-      </c>
-      <c r="J6" s="4">
-        <f>MIN(J4:J5)</f>
-        <v>2.3131088210674395</v>
-      </c>
-      <c r="K6" s="4">
-        <f>MIN(K4:K5)</f>
-        <v>3.2422914468543693</v>
-      </c>
-      <c r="L6" s="4">
-        <f>MIN(L4:L5)</f>
-        <v>1.348748626542396</v>
-      </c>
-      <c r="M6" s="4">
-        <f>MIN(M4:M5)</f>
-        <v>5.4688932989719232</v>
+      <c r="B6" s="4" t="str">
+        <f>IF(MIN(B4:B5)=B4,"k1","k2")</f>
+        <v>k2</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:M6" si="1">IF(MIN(C4:C5)=C4,"k1","k2")</f>
+        <v>k1</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k2</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k2</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k2</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k2</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>k1</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1899,51 +1899,51 @@
       </c>
       <c r="B8" s="3">
         <f>SQRT(POWER(B1-$P$1, 2)+POWER(B2-$P$2, 2))</f>
-        <v>7.5177143926927679</v>
+        <v>9.6632666446880684</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:M8" si="1">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
-        <v>5.4929658780170847</v>
+        <f t="shared" ref="C8:M8" si="2">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
+        <v>2.0598759718966089</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3460063320800435</v>
+        <f t="shared" si="2"/>
+        <v>7.7196316066170558</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>5.6166071706995853</v>
+        <f t="shared" si="2"/>
+        <v>2.237475798614367</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.7060216651552382</v>
+        <f t="shared" si="2"/>
+        <v>5.9953950974010883</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8443683021663411</v>
+        <f t="shared" si="2"/>
+        <v>7.7754520248696153</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.7128674138056694</v>
+        <f t="shared" si="2"/>
+        <v>0.54840870162771838</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>5.5980485124644108</v>
+        <f t="shared" si="2"/>
+        <v>6.5149309855684585</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.217650139169888</v>
+        <f t="shared" si="2"/>
+        <v>1.7072766455267292</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6701705612834923</v>
+        <f t="shared" si="2"/>
+        <v>1.6042320749548677</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3499290635135655</v>
+        <f t="shared" si="2"/>
+        <v>1.7916205806032146</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9693013775296049</v>
+        <f t="shared" si="2"/>
+        <v>3.7753754057731799</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1952,104 +1952,104 @@
       </c>
       <c r="B9" s="3">
         <f>SQRT(POWER(B1-$Q$1, 2)+POWER(B2-$Q$2, 2))</f>
-        <v>2.7664209170153411</v>
+        <v>2.3071621204631461</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:M9" si="2">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
-        <v>8.7866187545073338</v>
+        <f t="shared" ref="C9:M9" si="3">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
+        <v>9.1444665275269053</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0219263999463486</v>
+        <f t="shared" si="3"/>
+        <v>1.5178508117730152</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>8.3464655459633939</v>
+        <f t="shared" si="3"/>
+        <v>8.6510550617802675</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1031394211975198</v>
+        <f t="shared" si="3"/>
+        <v>1.6752636277911599</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1075714097116616</v>
+        <f t="shared" si="3"/>
+        <v>2.4764999711354734</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
-        <v>7.4408104015960523</v>
+        <f t="shared" si="3"/>
+        <v>7.865853654403951</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
-        <v>2.3464515012897667</v>
+        <f t="shared" si="3"/>
+        <v>2.1379213437133271</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4994124611725566</v>
+        <f t="shared" si="3"/>
+        <v>5.8508127485076811</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>7.0681219801546291</v>
+        <f t="shared" si="3"/>
+        <v>7.5645487607883792</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="2"/>
-        <v>6.5032301864227442</v>
+        <f t="shared" si="3"/>
+        <v>6.7971767299077932</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="2"/>
-        <v>6.7172250904328052</v>
+        <f t="shared" si="3"/>
+        <v>7.2910148766505749</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <f>MIN(B8:B9)</f>
-        <v>2.7664209170153411</v>
-      </c>
-      <c r="C10" s="4">
-        <f>MIN(C8:C9)</f>
-        <v>5.4929658780170847</v>
-      </c>
-      <c r="D10" s="4">
-        <f>MIN(D8:D9)</f>
-        <v>2.0219263999463486</v>
-      </c>
-      <c r="E10" s="4">
-        <f>MIN(E8:E9)</f>
-        <v>5.6166071706995853</v>
-      </c>
-      <c r="F10" s="4">
-        <f>MIN(F8:F9)</f>
-        <v>1.1031394211975198</v>
-      </c>
-      <c r="G10" s="4">
-        <f>MIN(G8:G9)</f>
-        <v>2.1075714097116616</v>
-      </c>
-      <c r="H10" s="4">
-        <f>MIN(H8:H9)</f>
-        <v>3.7128674138056694</v>
-      </c>
-      <c r="I10" s="4">
-        <f>MIN(I8:I9)</f>
-        <v>2.3464515012897667</v>
-      </c>
-      <c r="J10" s="4">
-        <f>MIN(J8:J9)</f>
-        <v>3.217650139169888</v>
-      </c>
-      <c r="K10" s="4">
-        <f>MIN(K8:K9)</f>
-        <v>2.6701705612834923</v>
-      </c>
-      <c r="L10" s="4">
-        <f>MIN(L8:L9)</f>
-        <v>4.3499290635135655</v>
-      </c>
-      <c r="M10" s="4">
-        <f>MIN(M8:M9)</f>
-        <v>1.9693013775296049</v>
+      <c r="B10" s="4" t="str">
+        <f>IF(MIN(B8:B9)=B8,"k1","k2")</f>
+        <v>k2</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" ref="C10:M10" si="4">IF(MIN(C8:C9)=C8,"k1","k2")</f>
+        <v>k1</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k2</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k2</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k2</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k2</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k1</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D844F2-8A2F-4656-A990-5CB79AA89D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD6C3B0-BA72-4337-99CD-BC6202121EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1570" yWindow="1020" windowWidth="21560" windowHeight="12550" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="1940" yWindow="1310" windowWidth="21560" windowHeight="12550" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
-    <sheet name="Scratch" sheetId="4" r:id="rId2"/>
+    <sheet name="Model (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Scratch" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>K1-Distance</t>
   </si>
@@ -661,7 +662,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-48B3-4B40-8022-F609E9F77A44}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-48B3-4B40-8022-F609E9F77A44}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-48B3-4B40-8022-F609E9F77A44}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.7840100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80864599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8248200000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8018270000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1569900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5071149999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.10033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8913640000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.743483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1532399999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54972600000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$B$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.8598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77391200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4818800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42695499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6008500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7223030000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5610599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4929030000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8915899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9889160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2730920000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-48B3-4B40-8022-F609E9F77A44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1746838048"/>
+        <c:axId val="2015557392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1746838048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015557392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2015557392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746838048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1217,6 +1740,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1242,6 +2281,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77712C33-3BC9-4D82-B630-07EF6DF5FA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1603,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC02396-A82A-4E38-955C-E0744E81DAB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -2059,6 +3141,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B524A5-C02E-46BA-855D-C1583E2922D2}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7">
+        <v>9.7840100000000003</v>
+      </c>
+      <c r="C1" s="7">
+        <v>0.80864599999999998</v>
+      </c>
+      <c r="D1" s="7">
+        <v>8.8248200000000008</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1.8018270000000001</v>
+      </c>
+      <c r="F1" s="7">
+        <v>6.1569900000000004</v>
+      </c>
+      <c r="G1" s="7">
+        <v>6.5071149999999998</v>
+      </c>
+      <c r="H1" s="7">
+        <v>1.10033</v>
+      </c>
+      <c r="I1" s="7">
+        <v>7.8913640000000003</v>
+      </c>
+      <c r="J1" s="7">
+        <v>3.3313000000000001</v>
+      </c>
+      <c r="K1" s="7">
+        <v>0.743483</v>
+      </c>
+      <c r="L1" s="7">
+        <v>3.1532399999999998</v>
+      </c>
+      <c r="M1" s="7">
+        <v>0.54972600000000005</v>
+      </c>
+      <c r="N1" s="3">
+        <v>4</v>
+      </c>
+      <c r="O1" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="P1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7.8598999999999997</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.77391200000000004</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5.4818800000000003</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.42695499999999997</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6.6008500000000003</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8.7223030000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.5610599999999999</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4.4929030000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.8915899999999999</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3.9889160000000001</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.6994</v>
+      </c>
+      <c r="M2" s="7">
+        <v>6.2730920000000001</v>
+      </c>
+      <c r="N2" s="3">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="P2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A181A2D-0F59-4D3E-8C80-8FFB9D7142AA}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/programs/frameworks/neural/data/km.xlsx
+++ b/programs/frameworks/neural/data/km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD6C3B0-BA72-4337-99CD-BC6202121EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EDC19-9E82-44D2-B945-8262352BC5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1310" windowWidth="21560" windowHeight="12550" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
+    <workbookView xWindow="400" yWindow="780" windowWidth="19890" windowHeight="14240" activeTab="1" xr2:uid="{0A150D75-2C26-4F3F-A19F-9DE0B9471383}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -145,7 +145,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -780,13 +779,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-48B3-4B40-8022-F609E9F77A44}"/>
@@ -839,10 +831,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Model (2)'!$B$1:$P$1</c:f>
+              <c:f>'Model (2)'!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9.7840100000000003</c:v>
                 </c:pt>
@@ -880,23 +872,20 @@
                   <c:v>0.54972600000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>7.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model (2)'!$B$2:$P$2</c:f>
+              <c:f>'Model (2)'!$B$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>7.8598999999999997</c:v>
                 </c:pt>
@@ -934,13 +923,10 @@
                   <c:v>6.2730920000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>2.6585709999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,16 +2287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2695,7 +2681,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7">
@@ -2734,10 +2720,10 @@
       <c r="M1" s="7">
         <v>0.54972600000000005</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>4</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>7.25</v>
       </c>
       <c r="P1" s="8">
@@ -2748,7 +2734,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
@@ -2787,10 +2773,10 @@
       <c r="M2" s="7">
         <v>6.2730920000000001</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>6</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>6.75</v>
       </c>
       <c r="P2" s="8">
@@ -2866,51 +2852,51 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f>SQRT(POWER(B1-$O$1, 2)+POWER(B2-$O$2, 2))</f>
+        <f t="shared" ref="B5:M5" si="1">SQRT(POWER(B1-$O$1, 2)+POWER(B2-$O$2, 2))</f>
         <v>2.7664209170153411</v>
       </c>
       <c r="C5" s="3">
-        <f>SQRT(POWER(C1-$O$1, 2)+POWER(C2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>8.7866187545073338</v>
       </c>
       <c r="D5" s="3">
-        <f>SQRT(POWER(D1-$O$1, 2)+POWER(D2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>2.0219263999463486</v>
       </c>
       <c r="E5" s="3">
-        <f>SQRT(POWER(E1-$O$1, 2)+POWER(E2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>8.3464655459633939</v>
       </c>
       <c r="F5" s="3">
-        <f>SQRT(POWER(F1-$O$1, 2)+POWER(F2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>1.1031394211975198</v>
       </c>
       <c r="G5" s="3">
-        <f>SQRT(POWER(G1-$O$1, 2)+POWER(G2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>2.1075714097116616</v>
       </c>
       <c r="H5" s="3">
-        <f>SQRT(POWER(H1-$O$1, 2)+POWER(H2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>7.4408104015960523</v>
       </c>
       <c r="I5" s="3">
-        <f>SQRT(POWER(I1-$O$1, 2)+POWER(I2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>2.3464515012897667</v>
       </c>
       <c r="J5" s="3">
-        <f>SQRT(POWER(J1-$O$1, 2)+POWER(J2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>5.4994124611725566</v>
       </c>
       <c r="K5" s="3">
-        <f>SQRT(POWER(K1-$O$1, 2)+POWER(K2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>7.0681219801546291</v>
       </c>
       <c r="L5" s="3">
-        <f>SQRT(POWER(L1-$O$1, 2)+POWER(L2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>6.5032301864227442</v>
       </c>
       <c r="M5" s="3">
-        <f>SQRT(POWER(M1-$O$1, 2)+POWER(M2-$O$2, 2))</f>
+        <f t="shared" si="1"/>
         <v>6.7172250904328052</v>
       </c>
       <c r="N5" s="1"/>
@@ -2927,47 +2913,47 @@
         <v>k2</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" ref="C6:M6" si="1">IF(MIN(C4:C5)=C4,"k1","k2")</f>
+        <f t="shared" ref="C6:M6" si="2">IF(MIN(C4:C5)=C4,"k1","k2")</f>
         <v>k1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k2</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k2</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k2</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k2</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>k1</v>
       </c>
       <c r="N6" s="1"/>
@@ -2984,47 +2970,47 @@
         <v>9.6632666446880684</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:M8" si="2">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
+        <f t="shared" ref="C8:M8" si="3">SQRT(POWER(C1-$P$1, 2)+POWER(C2-$P$2, 2))</f>
         <v>2.0598759718966089</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7196316066170558</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.237475798614367</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9953950974010883</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7754520248696153</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54840870162771838</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5149309855684585</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7072766455267292</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6042320749548677</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7916205806032146</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7753754057731799</v>
       </c>
     </row>
@@ -3037,47 +3023,47 @@
         <v>2.3071621204631461</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:M9" si="3">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
+        <f t="shared" ref="C9:M9" si="4">SQRT(POWER(C1-$Q$1, 2)+POWER(C2-$Q$2, 2))</f>
         <v>9.1444665275269053</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5178508117730152</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6510550617802675</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6752636277911599</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4764999711354734</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.865853654403951</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1379213437133271</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8508127485076811</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5645487607883792</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7971767299077932</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2910148766505749</v>
       </c>
     </row>
@@ -3090,47 +3076,47 @@
         <v>k2</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f t="shared" ref="C10:M10" si="4">IF(MIN(C8:C9)=C8,"k1","k2")</f>
+        <f t="shared" ref="C10:M10" si="5">IF(MIN(C8:C9)=C8,"k1","k2")</f>
         <v>k1</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k2</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k2</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k2</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k2</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>k1</v>
       </c>
     </row>
@@ -3144,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B524A5-C02E-46BA-855D-C1583E2922D2}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3154,7 +3140,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7">
@@ -3194,17 +3180,17 @@
         <v>0.54972600000000005</v>
       </c>
       <c r="N1" s="3">
-        <v>4</v>
+        <v>1.64</v>
       </c>
       <c r="O1" s="3">
-        <v>7.25</v>
+        <v>7.8319999999999999</v>
       </c>
       <c r="P1" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
@@ -3244,10 +3230,10 @@
         <v>6.2730920000000001</v>
       </c>
       <c r="N2" s="3">
-        <v>6</v>
+        <v>2.6585709999999998</v>
       </c>
       <c r="O2" s="3">
-        <v>6.75</v>
+        <v>6.63</v>
       </c>
       <c r="P2" s="3">
         <v>5</v>
